--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1741.562623743244</v>
+        <v>1905.51136051141</v>
       </c>
       <c r="AB2" t="n">
-        <v>2382.882814125913</v>
+        <v>2607.204708679911</v>
       </c>
       <c r="AC2" t="n">
-        <v>2155.463822742769</v>
+        <v>2358.37675051829</v>
       </c>
       <c r="AD2" t="n">
-        <v>1741562.623743244</v>
+        <v>1905511.36051141</v>
       </c>
       <c r="AE2" t="n">
-        <v>2382882.814125913</v>
+        <v>2607204.708679911</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.966515170985542e-07</v>
+        <v>1.148504142734334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.15393518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>2155463.822742769</v>
+        <v>2358376.75051829</v>
       </c>
     </row>
     <row r="3">
@@ -3058,28 +3058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1036.903791307757</v>
+        <v>1157.600348243933</v>
       </c>
       <c r="AB3" t="n">
-        <v>1418.737512234028</v>
+        <v>1583.879866190394</v>
       </c>
       <c r="AC3" t="n">
-        <v>1283.335195277016</v>
+        <v>1432.716594750536</v>
       </c>
       <c r="AD3" t="n">
-        <v>1036903.791307757</v>
+        <v>1157600.348243933</v>
       </c>
       <c r="AE3" t="n">
-        <v>1418737.512234028</v>
+        <v>1583879.866190394</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.122108004108887e-06</v>
+        <v>1.617703178433765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1283335.195277016</v>
+        <v>1432716.594750536</v>
       </c>
     </row>
     <row r="4">
@@ -3164,28 +3164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>873.3828127840617</v>
+        <v>976.897974983843</v>
       </c>
       <c r="AB4" t="n">
-        <v>1195.000895381477</v>
+        <v>1336.634907069868</v>
       </c>
       <c r="AC4" t="n">
-        <v>1080.951687120559</v>
+        <v>1209.068347517994</v>
       </c>
       <c r="AD4" t="n">
-        <v>873382.8127840617</v>
+        <v>976897.974983843</v>
       </c>
       <c r="AE4" t="n">
-        <v>1195000.895381477</v>
+        <v>1336634.907069868</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.249517627714998e-06</v>
+        <v>1.801385098815695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1080951.687120559</v>
+        <v>1209068.347517994</v>
       </c>
     </row>
     <row r="5">
@@ -3270,28 +3270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>796.8591084205359</v>
+        <v>891.8262436794055</v>
       </c>
       <c r="AB5" t="n">
-        <v>1090.29778708373</v>
+        <v>1220.236011199232</v>
       </c>
       <c r="AC5" t="n">
-        <v>986.2412965270132</v>
+        <v>1103.778398902374</v>
       </c>
       <c r="AD5" t="n">
-        <v>796859.1084205359</v>
+        <v>891826.2436794054</v>
       </c>
       <c r="AE5" t="n">
-        <v>1090297.78708373</v>
+        <v>1220236.011199232</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.317633984605817e-06</v>
+        <v>1.89958602657141e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.06712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>986241.2965270132</v>
+        <v>1103778.398902374</v>
       </c>
     </row>
     <row r="6">
@@ -3376,28 +3376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>742.4227010479682</v>
+        <v>837.304495452266</v>
       </c>
       <c r="AB6" t="n">
-        <v>1015.815492951784</v>
+        <v>1145.636949945088</v>
       </c>
       <c r="AC6" t="n">
-        <v>918.8674880104633</v>
+        <v>1036.298967353886</v>
       </c>
       <c r="AD6" t="n">
-        <v>742422.7010479682</v>
+        <v>837304.495452266</v>
       </c>
       <c r="AE6" t="n">
-        <v>1015815.492951784</v>
+        <v>1145636.949945088</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.361959509059055e-06</v>
+        <v>1.963488557817226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.31481481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>918867.4880104633</v>
+        <v>1036298.967353886</v>
       </c>
     </row>
     <row r="7">
@@ -3482,28 +3482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>695.0020074422278</v>
+        <v>798.4317392788864</v>
       </c>
       <c r="AB7" t="n">
-        <v>950.9324079070576</v>
+        <v>1092.449530003702</v>
       </c>
       <c r="AC7" t="n">
-        <v>860.1767535384241</v>
+        <v>988.1876801226933</v>
       </c>
       <c r="AD7" t="n">
-        <v>695002.0074422278</v>
+        <v>798431.7392788865</v>
       </c>
       <c r="AE7" t="n">
-        <v>950932.4079070576</v>
+        <v>1092449.530003702</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.393365508612416e-06</v>
+        <v>2.008765469766275e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.81134259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>860176.7535384241</v>
+        <v>988187.6801226933</v>
       </c>
     </row>
     <row r="8">
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>676.7096289796029</v>
+        <v>771.6766747299214</v>
       </c>
       <c r="AB8" t="n">
-        <v>925.9039686917117</v>
+        <v>1055.842070337665</v>
       </c>
       <c r="AC8" t="n">
-        <v>837.5369934341561</v>
+        <v>955.0739850282906</v>
       </c>
       <c r="AD8" t="n">
-        <v>676709.6289796029</v>
+        <v>771676.6747299214</v>
       </c>
       <c r="AE8" t="n">
-        <v>925903.9686917118</v>
+        <v>1055842.070337665</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.407492956572039e-06</v>
+        <v>2.029132508753389e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.59143518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>837536.9934341561</v>
+        <v>955073.9850282907</v>
       </c>
     </row>
     <row r="9">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>675.2375971365544</v>
+        <v>770.2046428868728</v>
       </c>
       <c r="AB9" t="n">
-        <v>923.8898697825913</v>
+        <v>1053.827971428545</v>
       </c>
       <c r="AC9" t="n">
-        <v>835.7151172981162</v>
+        <v>953.2521088922508</v>
       </c>
       <c r="AD9" t="n">
-        <v>675237.5971365544</v>
+        <v>770204.6428868728</v>
       </c>
       <c r="AE9" t="n">
-        <v>923889.8697825912</v>
+        <v>1053827.971428545</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.410118876267136e-06</v>
+        <v>2.032918203732407e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.55092592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>835715.1172981162</v>
+        <v>953252.1088922508</v>
       </c>
     </row>
     <row r="10">
@@ -3800,28 +3800,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>677.6517899741964</v>
+        <v>772.6188357245147</v>
       </c>
       <c r="AB10" t="n">
-        <v>927.1930749297239</v>
+        <v>1057.131176575678</v>
       </c>
       <c r="AC10" t="n">
-        <v>838.7030691820842</v>
+        <v>956.2400607762189</v>
       </c>
       <c r="AD10" t="n">
-        <v>677651.7899741963</v>
+        <v>772618.8357245147</v>
       </c>
       <c r="AE10" t="n">
-        <v>927193.074929724</v>
+        <v>1057131.176575677</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410013839479332e-06</v>
+        <v>2.032766775933246e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.55671296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>838703.0691820842</v>
+        <v>956240.0607762189</v>
       </c>
     </row>
   </sheetData>
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1309.439189509987</v>
+        <v>1452.364797744446</v>
       </c>
       <c r="AB2" t="n">
-        <v>1791.632467467518</v>
+        <v>1987.189590086725</v>
       </c>
       <c r="AC2" t="n">
-        <v>1620.641579344378</v>
+        <v>1797.535004646954</v>
       </c>
       <c r="AD2" t="n">
-        <v>1309439.189509987</v>
+        <v>1452364.797744446</v>
       </c>
       <c r="AE2" t="n">
-        <v>1791632.467467518</v>
+        <v>1987189.590086725</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.436498448011777e-07</v>
+        <v>1.381467873669892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.31597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1620641.579344378</v>
+        <v>1797535.004646954</v>
       </c>
     </row>
     <row r="3">
@@ -4203,28 +4203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>849.7855068665772</v>
+        <v>959.0414208810244</v>
       </c>
       <c r="AB3" t="n">
-        <v>1162.714020385511</v>
+        <v>1312.202781970823</v>
       </c>
       <c r="AC3" t="n">
-        <v>1051.746226159294</v>
+        <v>1186.967990147698</v>
       </c>
       <c r="AD3" t="n">
-        <v>849785.5068665772</v>
+        <v>959041.4208810243</v>
       </c>
       <c r="AE3" t="n">
-        <v>1162714.020385511</v>
+        <v>1312202.781970823</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.246482721473511e-06</v>
+        <v>1.824803812862475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.22569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>1051746.226159294</v>
+        <v>1186967.990147698</v>
       </c>
     </row>
     <row r="4">
@@ -4309,28 +4309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>732.0861834348893</v>
+        <v>832.9246738943335</v>
       </c>
       <c r="AB4" t="n">
-        <v>1001.672613538596</v>
+        <v>1139.644284865434</v>
       </c>
       <c r="AC4" t="n">
-        <v>906.0743851588144</v>
+        <v>1030.878233818676</v>
       </c>
       <c r="AD4" t="n">
-        <v>732086.1834348893</v>
+        <v>832924.6738943335</v>
       </c>
       <c r="AE4" t="n">
-        <v>1001672.613538596</v>
+        <v>1139644.284865435</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.359542501946265e-06</v>
+        <v>1.990319078284034e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>906074.3851588144</v>
+        <v>1030878.233818676</v>
       </c>
     </row>
     <row r="5">
@@ -4415,28 +4415,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>666.5308825210429</v>
+        <v>759.0372902800557</v>
       </c>
       <c r="AB5" t="n">
-        <v>911.9769587325089</v>
+        <v>1038.548306923071</v>
       </c>
       <c r="AC5" t="n">
-        <v>824.939157758778</v>
+        <v>939.4307141220359</v>
       </c>
       <c r="AD5" t="n">
-        <v>666530.8825210429</v>
+        <v>759037.2902800557</v>
       </c>
       <c r="AE5" t="n">
-        <v>911976.9587325089</v>
+        <v>1038548.306923071</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.420228602276906e-06</v>
+        <v>2.079161246220546e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.13541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>824939.1577587781</v>
+        <v>939430.7141220359</v>
       </c>
     </row>
     <row r="6">
@@ -4521,28 +4521,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>626.9779762493724</v>
+        <v>719.5696353544058</v>
       </c>
       <c r="AB6" t="n">
-        <v>857.8589274205372</v>
+        <v>984.5469202637487</v>
       </c>
       <c r="AC6" t="n">
-        <v>775.9860754000871</v>
+        <v>890.583144014057</v>
       </c>
       <c r="AD6" t="n">
-        <v>626977.9762493725</v>
+        <v>719569.6353544059</v>
       </c>
       <c r="AE6" t="n">
-        <v>857858.9274205371</v>
+        <v>984546.9202637487</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.449457896796051e-06</v>
+        <v>2.121951833821121e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.68981481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>775986.0754000871</v>
+        <v>890583.144014057</v>
       </c>
     </row>
     <row r="7">
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>621.0385177869366</v>
+        <v>713.63017689197</v>
       </c>
       <c r="AB7" t="n">
-        <v>849.7322983218183</v>
+        <v>976.4202911650299</v>
       </c>
       <c r="AC7" t="n">
-        <v>768.6350403767542</v>
+        <v>883.2321089907242</v>
       </c>
       <c r="AD7" t="n">
-        <v>621038.5177869366</v>
+        <v>713630.17689197</v>
       </c>
       <c r="AE7" t="n">
-        <v>849732.2983218184</v>
+        <v>976420.2911650299</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.453804260293322e-06</v>
+        <v>2.128314746475482e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.6261574074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>768635.0403767542</v>
+        <v>883232.1089907242</v>
       </c>
     </row>
   </sheetData>
@@ -4924,28 +4924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>604.4232027881469</v>
+        <v>705.3126154786933</v>
       </c>
       <c r="AB2" t="n">
-        <v>826.9984913245102</v>
+        <v>965.0398366944728</v>
       </c>
       <c r="AC2" t="n">
-        <v>748.0709160121706</v>
+        <v>872.9377891222691</v>
       </c>
       <c r="AD2" t="n">
-        <v>604423.2027881469</v>
+        <v>705312.6154786933</v>
       </c>
       <c r="AE2" t="n">
-        <v>826998.4913245102</v>
+        <v>965039.8366944728</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.419446968749494e-06</v>
+        <v>2.196059667132615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.71643518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>748070.9160121706</v>
+        <v>872937.7891222691</v>
       </c>
     </row>
     <row r="3">
@@ -5030,28 +5030,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>509.6593701755459</v>
+        <v>602.7814941318525</v>
       </c>
       <c r="AB3" t="n">
-        <v>697.3384348587126</v>
+        <v>824.7522331138938</v>
       </c>
       <c r="AC3" t="n">
-        <v>630.7854333564367</v>
+        <v>746.0390375325323</v>
       </c>
       <c r="AD3" t="n">
-        <v>509659.3701755459</v>
+        <v>602781.4941318525</v>
       </c>
       <c r="AE3" t="n">
-        <v>697338.4348587126</v>
+        <v>824752.2331138938</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.551970718373069e-06</v>
+        <v>2.401090265593019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>630785.4333564367</v>
+        <v>746039.0375325324</v>
       </c>
     </row>
   </sheetData>
@@ -5327,28 +5327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>816.8183841676598</v>
+        <v>928.9483091314917</v>
       </c>
       <c r="AB2" t="n">
-        <v>1117.606948702045</v>
+        <v>1271.02805886072</v>
       </c>
       <c r="AC2" t="n">
-        <v>1010.944110089126</v>
+        <v>1149.722924822137</v>
       </c>
       <c r="AD2" t="n">
-        <v>816818.3841676598</v>
+        <v>928948.3091314917</v>
       </c>
       <c r="AE2" t="n">
-        <v>1117606.948702045</v>
+        <v>1271028.05886072</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.227388806835165e-06</v>
+        <v>1.854945300700052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1010944.110089125</v>
+        <v>1149722.924822137</v>
       </c>
     </row>
     <row r="3">
@@ -5433,28 +5433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>584.3378350397124</v>
+        <v>680.5100803260759</v>
       </c>
       <c r="AB3" t="n">
-        <v>799.5168050672152</v>
+        <v>931.1039138880361</v>
       </c>
       <c r="AC3" t="n">
-        <v>723.2120433204831</v>
+        <v>842.2406631591122</v>
       </c>
       <c r="AD3" t="n">
-        <v>584337.8350397125</v>
+        <v>680510.0803260759</v>
       </c>
       <c r="AE3" t="n">
-        <v>799516.8050672151</v>
+        <v>931103.9138880362</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.478747455836895e-06</v>
+        <v>2.23482211085145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.69675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>723212.0433204831</v>
+        <v>842240.6631591122</v>
       </c>
     </row>
     <row r="4">
@@ -5539,28 +5539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>550.2308121968789</v>
+        <v>638.3816814800488</v>
       </c>
       <c r="AB4" t="n">
-        <v>752.8500717179986</v>
+        <v>873.4619800131165</v>
       </c>
       <c r="AC4" t="n">
-        <v>680.9991175049441</v>
+        <v>790.0999945522526</v>
       </c>
       <c r="AD4" t="n">
-        <v>550230.8121968789</v>
+        <v>638381.6814800488</v>
       </c>
       <c r="AE4" t="n">
-        <v>752850.0717179986</v>
+        <v>873461.9800131165</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524275037624241e-06</v>
+        <v>2.303627670604299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.01967592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>680999.1175049441</v>
+        <v>790099.9945522526</v>
       </c>
     </row>
     <row r="5">
@@ -5645,28 +5645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>554.3148084188761</v>
+        <v>642.4656777020459</v>
       </c>
       <c r="AB5" t="n">
-        <v>758.4379755221323</v>
+        <v>879.0498838172504</v>
       </c>
       <c r="AC5" t="n">
-        <v>686.0537196126835</v>
+        <v>795.1545966599919</v>
       </c>
       <c r="AD5" t="n">
-        <v>554314.808418876</v>
+        <v>642465.6777020459</v>
       </c>
       <c r="AE5" t="n">
-        <v>758437.9755221324</v>
+        <v>879049.8838172504</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522999105395806e-06</v>
+        <v>2.301699361923327e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.03703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>686053.7196126835</v>
+        <v>795154.5966599919</v>
       </c>
     </row>
   </sheetData>
@@ -5942,28 +5942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>491.1173294809421</v>
+        <v>581.823069126636</v>
       </c>
       <c r="AB2" t="n">
-        <v>671.9683967632531</v>
+        <v>796.0759914013017</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.8366760897356</v>
+        <v>720.0996160816321</v>
       </c>
       <c r="AD2" t="n">
-        <v>491117.3294809421</v>
+        <v>581823.069126636</v>
       </c>
       <c r="AE2" t="n">
-        <v>671968.396763253</v>
+        <v>796075.9914013017</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.543222534186539e-06</v>
+        <v>2.439044681707792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>607836.6760897357</v>
+        <v>720099.6160816321</v>
       </c>
     </row>
     <row r="3">
@@ -6048,28 +6048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>487.0462409254625</v>
+        <v>577.5813883705642</v>
       </c>
       <c r="AB3" t="n">
-        <v>666.3981537978946</v>
+        <v>790.2723366610965</v>
       </c>
       <c r="AC3" t="n">
-        <v>602.798049295106</v>
+        <v>714.8498540043514</v>
       </c>
       <c r="AD3" t="n">
-        <v>487046.2409254625</v>
+        <v>577581.3883705642</v>
       </c>
       <c r="AE3" t="n">
-        <v>666398.1537978946</v>
+        <v>790272.3366610964</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.558585500255144e-06</v>
+        <v>2.463325665075262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.37962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>602798.049295106</v>
+        <v>714849.8540043514</v>
       </c>
     </row>
   </sheetData>
@@ -6345,28 +6345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1403.471133678784</v>
+        <v>1555.750488367546</v>
       </c>
       <c r="AB2" t="n">
-        <v>1920.291121875863</v>
+        <v>2128.646453052017</v>
       </c>
       <c r="AC2" t="n">
-        <v>1737.021232349547</v>
+        <v>1925.491423146792</v>
       </c>
       <c r="AD2" t="n">
-        <v>1403471.133678784</v>
+        <v>1555750.488367546</v>
       </c>
       <c r="AE2" t="n">
-        <v>1920291.121875863</v>
+        <v>2128646.453052017</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.056141195295881e-07</v>
+        <v>1.320282407904113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.40393518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>1737021.232349547</v>
+        <v>1925491.423146792</v>
       </c>
     </row>
     <row r="3">
@@ -6451,28 +6451,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>891.5082318198619</v>
+        <v>1001.672606301586</v>
       </c>
       <c r="AB3" t="n">
-        <v>1219.800893343311</v>
+        <v>1370.532650618399</v>
       </c>
       <c r="AC3" t="n">
-        <v>1103.384808083931</v>
+        <v>1239.730937998035</v>
       </c>
       <c r="AD3" t="n">
-        <v>891508.2318198619</v>
+        <v>1001672.606301586</v>
       </c>
       <c r="AE3" t="n">
-        <v>1219800.893343311</v>
+        <v>1370532.650618399</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.213210639438776e-06</v>
+        <v>1.768723156795683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.68287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1103384.808083931</v>
+        <v>1239730.937998035</v>
       </c>
     </row>
     <row r="4">
@@ -6557,28 +6557,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>764.2629253509907</v>
+        <v>865.7825249796825</v>
       </c>
       <c r="AB4" t="n">
-        <v>1045.698251365873</v>
+        <v>1184.601846306492</v>
       </c>
       <c r="AC4" t="n">
-        <v>945.8982779022273</v>
+        <v>1071.545108694133</v>
       </c>
       <c r="AD4" t="n">
-        <v>764262.9253509907</v>
+        <v>865782.5249796825</v>
       </c>
       <c r="AE4" t="n">
-        <v>1045698.251365873</v>
+        <v>1184601.846306492</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.330585121042492e-06</v>
+        <v>1.939841804193481e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.41435185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>945898.2779022272</v>
+        <v>1071545.108694133</v>
       </c>
     </row>
     <row r="5">
@@ -6663,28 +6663,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>696.749295870424</v>
+        <v>789.8800537012471</v>
       </c>
       <c r="AB5" t="n">
-        <v>953.3231250194406</v>
+        <v>1080.748736522635</v>
       </c>
       <c r="AC5" t="n">
-        <v>862.3393039649939</v>
+        <v>977.6035939492923</v>
       </c>
       <c r="AD5" t="n">
-        <v>696749.295870424</v>
+        <v>789880.0537012471</v>
       </c>
       <c r="AE5" t="n">
-        <v>953323.1250194405</v>
+        <v>1080748.736522635</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.39331047474356e-06</v>
+        <v>2.031288237321204e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.36111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>862339.3039649939</v>
+        <v>977603.5939492923</v>
       </c>
     </row>
     <row r="6">
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>649.3279409065836</v>
+        <v>750.8474510267245</v>
       </c>
       <c r="AB6" t="n">
-        <v>888.4391350753853</v>
+        <v>1027.342607546455</v>
       </c>
       <c r="AC6" t="n">
-        <v>803.6477509559471</v>
+        <v>929.2944709666267</v>
       </c>
       <c r="AD6" t="n">
-        <v>649327.9409065837</v>
+        <v>750847.4510267244</v>
       </c>
       <c r="AE6" t="n">
-        <v>888439.1350753852</v>
+        <v>1027342.607546455</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.429491966320485e-06</v>
+        <v>2.084036737803461e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.79398148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>803647.7509559471</v>
+        <v>929294.4709666267</v>
       </c>
     </row>
     <row r="7">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>637.1213512659023</v>
+        <v>730.3373604427459</v>
       </c>
       <c r="AB7" t="n">
-        <v>871.7375406122765</v>
+        <v>999.2797967681201</v>
       </c>
       <c r="AC7" t="n">
-        <v>788.5401332275626</v>
+        <v>903.9099354625733</v>
       </c>
       <c r="AD7" t="n">
-        <v>637121.3512659023</v>
+        <v>730337.3604427458</v>
       </c>
       <c r="AE7" t="n">
-        <v>871737.5406122764</v>
+        <v>999279.7967681201</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.440098742869078e-06</v>
+        <v>2.09950021190317e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.63773148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>788540.1332275626</v>
+        <v>903909.9354625733</v>
       </c>
     </row>
     <row r="8">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>638.8652712862527</v>
+        <v>732.0812804630964</v>
       </c>
       <c r="AB8" t="n">
-        <v>874.123648920441</v>
+        <v>1001.665905076285</v>
       </c>
       <c r="AC8" t="n">
-        <v>790.6985147077202</v>
+        <v>906.0683169427307</v>
       </c>
       <c r="AD8" t="n">
-        <v>638865.2712862527</v>
+        <v>732081.2804630963</v>
       </c>
       <c r="AE8" t="n">
-        <v>874123.648920441</v>
+        <v>1001665.905076285</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439614169321173e-06</v>
+        <v>2.098793758771712e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.64351851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>790698.5147077201</v>
+        <v>906068.3169427307</v>
       </c>
     </row>
   </sheetData>
@@ -7278,28 +7278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>474.2572021755804</v>
+        <v>563.3962946020854</v>
       </c>
       <c r="AB2" t="n">
-        <v>648.8996267677363</v>
+        <v>770.8636655648935</v>
       </c>
       <c r="AC2" t="n">
-        <v>586.969557125369</v>
+        <v>697.2935192373291</v>
       </c>
       <c r="AD2" t="n">
-        <v>474257.2021755804</v>
+        <v>563396.2946020854</v>
       </c>
       <c r="AE2" t="n">
-        <v>648899.6267677363</v>
+        <v>770863.6655648935</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546443932629157e-06</v>
+        <v>2.477766436160798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.11458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>586969.557125369</v>
+        <v>697293.519237329</v>
       </c>
     </row>
     <row r="3">
@@ -7384,28 +7384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.5131433716002</v>
+        <v>567.652235798105</v>
       </c>
       <c r="AB3" t="n">
-        <v>654.7227932710047</v>
+        <v>776.6868320681619</v>
       </c>
       <c r="AC3" t="n">
-        <v>592.236968790431</v>
+        <v>702.560930902391</v>
       </c>
       <c r="AD3" t="n">
-        <v>478513.1433716002</v>
+        <v>567652.235798105</v>
       </c>
       <c r="AE3" t="n">
-        <v>654722.7932710047</v>
+        <v>776686.8320681619</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.545219664515826e-06</v>
+        <v>2.475804871065505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.13194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>592236.9687904309</v>
+        <v>702560.930902391</v>
       </c>
     </row>
   </sheetData>
@@ -7681,28 +7681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1047.313983705105</v>
+        <v>1170.726924688678</v>
       </c>
       <c r="AB2" t="n">
-        <v>1432.981196737356</v>
+        <v>1601.840227185776</v>
       </c>
       <c r="AC2" t="n">
-        <v>1296.219482522483</v>
+        <v>1448.962844100044</v>
       </c>
       <c r="AD2" t="n">
-        <v>1047313.983705105</v>
+        <v>1170726.924688678</v>
       </c>
       <c r="AE2" t="n">
-        <v>1432981.196737356</v>
+        <v>1601840.227185776</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.0735128148817e-06</v>
+        <v>1.593998200208403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.17361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1296219.482522483</v>
+        <v>1448962.844100044</v>
       </c>
     </row>
     <row r="3">
@@ -7787,28 +7787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>714.5432871063006</v>
+        <v>821.404372082805</v>
       </c>
       <c r="AB3" t="n">
-        <v>977.6696488438565</v>
+        <v>1123.881699687055</v>
       </c>
       <c r="AC3" t="n">
-        <v>884.3622297261685</v>
+        <v>1016.620007646794</v>
       </c>
       <c r="AD3" t="n">
-        <v>714543.2871063006</v>
+        <v>821404.372082805</v>
       </c>
       <c r="AE3" t="n">
-        <v>977669.6488438565</v>
+        <v>1123881.699687055</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.352386568335691e-06</v>
+        <v>2.008081995882523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.95254629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>884362.2297261684</v>
+        <v>1016620.007646794</v>
       </c>
     </row>
     <row r="4">
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>618.220025811936</v>
+        <v>708.7001155076173</v>
       </c>
       <c r="AB4" t="n">
-        <v>845.8759132585321</v>
+        <v>969.6747636800005</v>
       </c>
       <c r="AC4" t="n">
-        <v>765.1467032914376</v>
+        <v>877.1303651814591</v>
       </c>
       <c r="AD4" t="n">
-        <v>618220.025811936</v>
+        <v>708700.1155076172</v>
       </c>
       <c r="AE4" t="n">
-        <v>845875.9132585322</v>
+        <v>969674.7636800006</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.457342065671345e-06</v>
+        <v>2.16392445210271e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.22800925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>765146.7032914376</v>
+        <v>877130.3651814591</v>
       </c>
     </row>
     <row r="5">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>582.4105904112281</v>
+        <v>672.9759314529302</v>
       </c>
       <c r="AB5" t="n">
-        <v>796.8798639424906</v>
+        <v>920.7953590166085</v>
       </c>
       <c r="AC5" t="n">
-        <v>720.8267681557321</v>
+        <v>832.9159422964656</v>
       </c>
       <c r="AD5" t="n">
-        <v>582410.5904112281</v>
+        <v>672975.9314529302</v>
       </c>
       <c r="AE5" t="n">
-        <v>796879.8639424907</v>
+        <v>920795.3590166084</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.488240964086962e-06</v>
+        <v>2.209804471213933e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.76504629629629</v>
       </c>
       <c r="AH5" t="n">
-        <v>720826.7681557321</v>
+        <v>832915.9422964656</v>
       </c>
     </row>
     <row r="6">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>584.302788991031</v>
+        <v>674.868130032733</v>
       </c>
       <c r="AB6" t="n">
-        <v>799.4688535172867</v>
+        <v>923.3843485914044</v>
       </c>
       <c r="AC6" t="n">
-        <v>723.1686681991793</v>
+        <v>835.2578423399129</v>
       </c>
       <c r="AD6" t="n">
-        <v>584302.788991031</v>
+        <v>674868.130032733</v>
       </c>
       <c r="AE6" t="n">
-        <v>799468.8535172867</v>
+        <v>923384.3485914044</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488240964086962e-06</v>
+        <v>2.209804471213933e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.76504629629629</v>
       </c>
       <c r="AH6" t="n">
-        <v>723168.6681991792</v>
+        <v>835257.8423399129</v>
       </c>
     </row>
   </sheetData>
@@ -8402,28 +8402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1218.595626205354</v>
+        <v>1352.246472805681</v>
       </c>
       <c r="AB2" t="n">
-        <v>1667.336296418959</v>
+        <v>1850.20328099674</v>
       </c>
       <c r="AC2" t="n">
-        <v>1508.208060409922</v>
+        <v>1673.622476635025</v>
       </c>
       <c r="AD2" t="n">
-        <v>1218595.626205354</v>
+        <v>1352246.472805681</v>
       </c>
       <c r="AE2" t="n">
-        <v>1667336.296418959</v>
+        <v>1850203.28099674</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.844783015471486e-07</v>
+        <v>1.447618714388547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.23958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1508208.060409922</v>
+        <v>1673622.476635025</v>
       </c>
     </row>
     <row r="3">
@@ -8508,28 +8508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>802.7368970496524</v>
+        <v>911.3121357764878</v>
       </c>
       <c r="AB3" t="n">
-        <v>1098.340036795821</v>
+        <v>1246.897468423348</v>
       </c>
       <c r="AC3" t="n">
-        <v>993.5160052139501</v>
+        <v>1127.895324068611</v>
       </c>
       <c r="AD3" t="n">
-        <v>802736.8970496524</v>
+        <v>911312.1357764879</v>
       </c>
       <c r="AE3" t="n">
-        <v>1098340.036795821</v>
+        <v>1246897.468423348</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.278834571430355e-06</v>
+        <v>1.880452677626616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.82060185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>993516.0052139501</v>
+        <v>1127895.324068611</v>
       </c>
     </row>
     <row r="4">
@@ -8614,28 +8614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>690.4453285875119</v>
+        <v>790.6620611927008</v>
       </c>
       <c r="AB4" t="n">
-        <v>944.6977588715521</v>
+        <v>1081.818713672178</v>
       </c>
       <c r="AC4" t="n">
-        <v>854.5371306564823</v>
+        <v>978.5714539814049</v>
       </c>
       <c r="AD4" t="n">
-        <v>690445.3285875119</v>
+        <v>790662.0611927008</v>
       </c>
       <c r="AE4" t="n">
-        <v>944697.7588715521</v>
+        <v>1081818.713672178</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.389019357380673e-06</v>
+        <v>2.042473067443139e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.84722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>854537.1306564823</v>
+        <v>978571.4539814049</v>
       </c>
     </row>
     <row r="5">
@@ -8720,28 +8720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>625.4031816894626</v>
+        <v>725.5345734400798</v>
       </c>
       <c r="AB5" t="n">
-        <v>855.7042240286357</v>
+        <v>992.7084117070638</v>
       </c>
       <c r="AC5" t="n">
-        <v>774.0370138757634</v>
+        <v>897.9657141687471</v>
       </c>
       <c r="AD5" t="n">
-        <v>625403.1816894626</v>
+        <v>725534.5734400798</v>
       </c>
       <c r="AE5" t="n">
-        <v>855704.2240286358</v>
+        <v>992708.4117070638</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.447813827534353e-06</v>
+        <v>2.128926953895759e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.9212962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>774037.0138757634</v>
+        <v>897965.7141687471</v>
       </c>
     </row>
     <row r="6">
@@ -8826,28 +8826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>609.8375566983835</v>
+        <v>701.7811240364973</v>
       </c>
       <c r="AB6" t="n">
-        <v>834.4066492089322</v>
+        <v>960.2078943048533</v>
       </c>
       <c r="AC6" t="n">
-        <v>754.7720497055184</v>
+        <v>868.5670005326413</v>
       </c>
       <c r="AD6" t="n">
-        <v>609837.5566983835</v>
+        <v>701781.1240364973</v>
       </c>
       <c r="AE6" t="n">
-        <v>834406.6492089322</v>
+        <v>960207.8943048533</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.462841518599752e-06</v>
+        <v>2.151024309201746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.69560185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>754772.0497055184</v>
+        <v>868567.0005326413</v>
       </c>
     </row>
     <row r="7">
@@ -8932,28 +8932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>611.6409864346956</v>
+        <v>703.5845537728094</v>
       </c>
       <c r="AB7" t="n">
-        <v>836.8741813358591</v>
+        <v>962.6754264317805</v>
       </c>
       <c r="AC7" t="n">
-        <v>757.0040840294545</v>
+        <v>870.7990348565777</v>
       </c>
       <c r="AD7" t="n">
-        <v>611640.9864346957</v>
+        <v>703584.5537728093</v>
       </c>
       <c r="AE7" t="n">
-        <v>836874.1813358591</v>
+        <v>962675.4264317804</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465199878876439e-06</v>
+        <v>2.154492142333707e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.66087962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>757004.0840294545</v>
+        <v>870799.0348565776</v>
       </c>
     </row>
   </sheetData>
@@ -9229,28 +9229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1616.564635633555</v>
+        <v>1779.537203737238</v>
       </c>
       <c r="AB2" t="n">
-        <v>2211.855052272196</v>
+        <v>2434.841309793926</v>
       </c>
       <c r="AC2" t="n">
-        <v>2000.758710441401</v>
+        <v>2202.463472508435</v>
       </c>
       <c r="AD2" t="n">
-        <v>1616564.635633555</v>
+        <v>1779537.203737238</v>
       </c>
       <c r="AE2" t="n">
-        <v>2211855.052272196</v>
+        <v>2434841.309793926</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.313419297900377e-07</v>
+        <v>1.20276264765842e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.85185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>2000758.710441401</v>
+        <v>2202463.472508435</v>
       </c>
     </row>
     <row r="3">
@@ -9335,28 +9335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>982.6776141056735</v>
+        <v>1102.740206167711</v>
       </c>
       <c r="AB3" t="n">
-        <v>1344.542864296039</v>
+        <v>1508.817799543051</v>
       </c>
       <c r="AC3" t="n">
-        <v>1216.221580405386</v>
+        <v>1364.818346393743</v>
       </c>
       <c r="AD3" t="n">
-        <v>982677.6141056735</v>
+        <v>1102740.20616771</v>
       </c>
       <c r="AE3" t="n">
-        <v>1344542.864296039</v>
+        <v>1508817.799543051</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.152888725609236e-06</v>
+        <v>1.667967711456002e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.57407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1216221.580405386</v>
+        <v>1364818.346393743</v>
       </c>
     </row>
     <row r="4">
@@ -9441,28 +9441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>839.6375582452424</v>
+        <v>942.5362493991721</v>
       </c>
       <c r="AB4" t="n">
-        <v>1148.829149385904</v>
+        <v>1289.619678192578</v>
       </c>
       <c r="AC4" t="n">
-        <v>1039.186507760351</v>
+        <v>1166.540186098463</v>
       </c>
       <c r="AD4" t="n">
-        <v>839637.5582452425</v>
+        <v>942536.2493991721</v>
       </c>
       <c r="AE4" t="n">
-        <v>1148829.149385904</v>
+        <v>1289619.678192578</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.276340672901032e-06</v>
+        <v>1.846574594692084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.00462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1039186.507760351</v>
+        <v>1166540.186098463</v>
       </c>
     </row>
     <row r="5">
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>756.9847788247636</v>
+        <v>859.8833804701422</v>
       </c>
       <c r="AB5" t="n">
-        <v>1035.739970199526</v>
+        <v>1176.530376536651</v>
       </c>
       <c r="AC5" t="n">
-        <v>936.8904011138607</v>
+        <v>1064.243968670747</v>
       </c>
       <c r="AD5" t="n">
-        <v>756984.7788247636</v>
+        <v>859883.3804701422</v>
       </c>
       <c r="AE5" t="n">
-        <v>1035739.970199526</v>
+        <v>1176530.376536651</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.343095778190464e-06</v>
+        <v>1.943154045704392e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.80671296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>936890.4011138607</v>
+        <v>1064243.968670747</v>
       </c>
     </row>
     <row r="6">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>711.8012421358802</v>
+        <v>806.1179380814807</v>
       </c>
       <c r="AB6" t="n">
-        <v>973.9178619448412</v>
+        <v>1102.966126296571</v>
       </c>
       <c r="AC6" t="n">
-        <v>880.968508103129</v>
+        <v>997.7005872255063</v>
       </c>
       <c r="AD6" t="n">
-        <v>711801.2421358802</v>
+        <v>806117.9380814807</v>
       </c>
       <c r="AE6" t="n">
-        <v>973917.8619448412</v>
+        <v>1102966.126296571</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.385446360451801e-06</v>
+        <v>2.004425703761367e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.11226851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>880968.508103129</v>
+        <v>997700.5872255063</v>
       </c>
     </row>
     <row r="7">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>672.4417193285285</v>
+        <v>766.8436666201495</v>
       </c>
       <c r="AB7" t="n">
-        <v>920.0644264202267</v>
+        <v>1049.229335424606</v>
       </c>
       <c r="AC7" t="n">
-        <v>832.2547688812123</v>
+        <v>949.0923602543016</v>
       </c>
       <c r="AD7" t="n">
-        <v>672441.7193285285</v>
+        <v>766843.6666201495</v>
       </c>
       <c r="AE7" t="n">
-        <v>920064.4264202267</v>
+        <v>1049229.335424606</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.411280215631216e-06</v>
+        <v>2.041801415176121e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.70717592592592</v>
       </c>
       <c r="AH7" t="n">
-        <v>832254.7688812122</v>
+        <v>949092.3602543017</v>
       </c>
     </row>
     <row r="8">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>660.6179377461777</v>
+        <v>755.0198850377989</v>
       </c>
       <c r="AB8" t="n">
-        <v>903.8866068308257</v>
+        <v>1033.051515835205</v>
       </c>
       <c r="AC8" t="n">
-        <v>817.6209376877113</v>
+        <v>934.4585290608007</v>
       </c>
       <c r="AD8" t="n">
-        <v>660617.9377461778</v>
+        <v>755019.8850377989</v>
       </c>
       <c r="AE8" t="n">
-        <v>903886.6068308257</v>
+        <v>1033051.515835205</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.421603170057417e-06</v>
+        <v>2.056736381827509e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.55092592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>817620.9376877112</v>
+        <v>934458.5290608008</v>
       </c>
     </row>
     <row r="9">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>662.8250549891519</v>
+        <v>757.2270022807729</v>
       </c>
       <c r="AB9" t="n">
-        <v>906.9064820138033</v>
+        <v>1036.071391018182</v>
       </c>
       <c r="AC9" t="n">
-        <v>820.352600221647</v>
+        <v>937.1901915947367</v>
       </c>
       <c r="AD9" t="n">
-        <v>662825.0549891519</v>
+        <v>757227.0022807729</v>
       </c>
       <c r="AE9" t="n">
-        <v>906906.4820138033</v>
+        <v>1036071.391018182</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.421656108285244e-06</v>
+        <v>2.05681297140008e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.55092592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>820352.6002216469</v>
+        <v>937190.1915947367</v>
       </c>
     </row>
   </sheetData>
@@ -10268,28 +10268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>889.9570714268975</v>
+        <v>1003.213149345662</v>
       </c>
       <c r="AB2" t="n">
-        <v>1217.67852726129</v>
+        <v>1372.640489575266</v>
       </c>
       <c r="AC2" t="n">
-        <v>1101.464997642019</v>
+        <v>1241.637607763229</v>
       </c>
       <c r="AD2" t="n">
-        <v>889957.0714268975</v>
+        <v>1003213.149345662</v>
       </c>
       <c r="AE2" t="n">
-        <v>1217678.52726129</v>
+        <v>1372640.489575266</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.173369573604977e-06</v>
+        <v>1.762031035259181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.24652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1101464.997642019</v>
+        <v>1241637.607763229</v>
       </c>
     </row>
     <row r="3">
@@ -10374,28 +10374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>635.5843130496729</v>
+        <v>732.5634316474678</v>
       </c>
       <c r="AB3" t="n">
-        <v>869.6344971154912</v>
+        <v>1002.325605597751</v>
       </c>
       <c r="AC3" t="n">
-        <v>786.6378012504704</v>
+        <v>906.6650565723239</v>
       </c>
       <c r="AD3" t="n">
-        <v>635584.3130496729</v>
+        <v>732563.4316474679</v>
       </c>
       <c r="AE3" t="n">
-        <v>869634.4971154912</v>
+        <v>1002325.605597751</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.432406599250003e-06</v>
+        <v>2.151022951135659e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.13657407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>786637.8012504703</v>
+        <v>906665.0565723239</v>
       </c>
     </row>
     <row r="4">
@@ -10480,28 +10480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>559.3244685854886</v>
+        <v>656.3034976747326</v>
       </c>
       <c r="AB4" t="n">
-        <v>765.2924135727001</v>
+        <v>897.9833995854119</v>
       </c>
       <c r="AC4" t="n">
-        <v>692.2539797159694</v>
+        <v>812.2811242565962</v>
       </c>
       <c r="AD4" t="n">
-        <v>559324.4685854886</v>
+        <v>656303.4976747326</v>
       </c>
       <c r="AE4" t="n">
-        <v>765292.4135727001</v>
+        <v>897983.3995854119</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.50783259146192e-06</v>
+        <v>2.264289003138604e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>692253.9797159694</v>
+        <v>812281.1242565962</v>
       </c>
     </row>
     <row r="5">
@@ -10586,28 +10586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>556.1207238508374</v>
+        <v>653.0997529400814</v>
       </c>
       <c r="AB5" t="n">
-        <v>760.9089086875078</v>
+        <v>893.5998947002196</v>
       </c>
       <c r="AC5" t="n">
-        <v>688.2888303847321</v>
+        <v>808.315974925359</v>
       </c>
       <c r="AD5" t="n">
-        <v>556120.7238508374</v>
+        <v>653099.7529400814</v>
       </c>
       <c r="AE5" t="n">
-        <v>760908.9086875079</v>
+        <v>893599.8947002196</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512757903026252e-06</v>
+        <v>2.271685267734089e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.90972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>688288.8303847321</v>
+        <v>808315.974925359</v>
       </c>
     </row>
   </sheetData>
@@ -10883,28 +10883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>673.6263573059708</v>
+        <v>775.7828532030165</v>
       </c>
       <c r="AB2" t="n">
-        <v>921.6853003635023</v>
+        <v>1061.460324876363</v>
       </c>
       <c r="AC2" t="n">
-        <v>833.7209488902525</v>
+        <v>960.156041239085</v>
       </c>
       <c r="AD2" t="n">
-        <v>673626.3573059709</v>
+        <v>775782.8532030166</v>
       </c>
       <c r="AE2" t="n">
-        <v>921685.3003635022</v>
+        <v>1061460.324876363</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.350525687875434e-06</v>
+        <v>2.071364383060205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.5613425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>833720.9488902525</v>
+        <v>960156.041239085</v>
       </c>
     </row>
     <row r="3">
@@ -10989,28 +10989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>526.5908340605924</v>
+        <v>612.9456946274566</v>
       </c>
       <c r="AB3" t="n">
-        <v>720.5048107097017</v>
+        <v>838.6593406448577</v>
       </c>
       <c r="AC3" t="n">
-        <v>651.7408428104201</v>
+        <v>758.6188702394893</v>
       </c>
       <c r="AD3" t="n">
-        <v>526590.8340605925</v>
+        <v>612945.6946274566</v>
       </c>
       <c r="AE3" t="n">
-        <v>720504.8107097017</v>
+        <v>838659.3406448577</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.539938138577992e-06</v>
+        <v>2.361875113522974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.41898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>651740.8428104201</v>
+        <v>758618.8702394892</v>
       </c>
     </row>
     <row r="4">
@@ -11095,28 +11095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>524.5651366694714</v>
+        <v>610.9199972363356</v>
       </c>
       <c r="AB4" t="n">
-        <v>717.7331621717083</v>
+        <v>835.8876921068643</v>
       </c>
       <c r="AC4" t="n">
-        <v>649.2337165188596</v>
+        <v>756.1117439479287</v>
       </c>
       <c r="AD4" t="n">
-        <v>524565.1366694714</v>
+        <v>610919.9972363355</v>
       </c>
       <c r="AE4" t="n">
-        <v>717733.1621717083</v>
+        <v>835887.6921068643</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.54500902308499e-06</v>
+        <v>2.369652566149536e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH4" t="n">
-        <v>649233.7165188596</v>
+        <v>756111.7439479288</v>
       </c>
     </row>
   </sheetData>
@@ -19589,28 +19589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>533.7185841112616</v>
+        <v>633.2352835733068</v>
       </c>
       <c r="AB2" t="n">
-        <v>730.2573127831665</v>
+        <v>866.4204513540603</v>
       </c>
       <c r="AC2" t="n">
-        <v>660.5625797737162</v>
+        <v>783.7304995055689</v>
       </c>
       <c r="AD2" t="n">
-        <v>533718.5841112616</v>
+        <v>633235.2835733067</v>
       </c>
       <c r="AE2" t="n">
-        <v>730257.3127831665</v>
+        <v>866420.4513540603</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.496476127570605e-06</v>
+        <v>2.338214430790416e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.86574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>660562.5797737162</v>
+        <v>783730.4995055689</v>
       </c>
     </row>
     <row r="3">
@@ -19695,28 +19695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>494.1183167181687</v>
+        <v>586.052096944694</v>
       </c>
       <c r="AB3" t="n">
-        <v>676.0744798954395</v>
+        <v>801.8623338335085</v>
       </c>
       <c r="AC3" t="n">
-        <v>611.55088041071</v>
+        <v>725.3337181132916</v>
       </c>
       <c r="AD3" t="n">
-        <v>494118.3167181687</v>
+        <v>586052.0969446939</v>
       </c>
       <c r="AE3" t="n">
-        <v>676074.4798954395</v>
+        <v>801862.3338335085</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.557633612102853e-06</v>
+        <v>2.433771794018314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.92824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>611550.88041071</v>
+        <v>725333.7181132917</v>
       </c>
     </row>
   </sheetData>
@@ -19992,28 +19992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.0148159430491</v>
+        <v>559.637053811598</v>
       </c>
       <c r="AB2" t="n">
-        <v>636.2537861790837</v>
+        <v>765.72010646935</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.5306178139485</v>
+        <v>692.6408542028335</v>
       </c>
       <c r="AD2" t="n">
-        <v>465014.8159430492</v>
+        <v>559637.053811598</v>
       </c>
       <c r="AE2" t="n">
-        <v>636253.7861790837</v>
+        <v>765720.1064693499</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.509006048803278e-06</v>
+        <v>2.459191142431634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.39930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>575530.6178139485</v>
+        <v>692640.8542028335</v>
       </c>
     </row>
   </sheetData>
@@ -20289,28 +20289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1128.562451053932</v>
+        <v>1261.146989080879</v>
       </c>
       <c r="AB2" t="n">
-        <v>1544.148934193424</v>
+        <v>1725.556948338893</v>
       </c>
       <c r="AC2" t="n">
-        <v>1396.777527140643</v>
+        <v>1560.872215023816</v>
       </c>
       <c r="AD2" t="n">
-        <v>1128562.451053932</v>
+        <v>1261146.989080879</v>
       </c>
       <c r="AE2" t="n">
-        <v>1544148.934193424</v>
+        <v>1725556.948338893</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.029148489562479e-06</v>
+        <v>1.520444223736098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1396777.527140643</v>
+        <v>1560872.215023816</v>
       </c>
     </row>
     <row r="3">
@@ -20395,28 +20395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>762.0886166723853</v>
+        <v>861.5697129970192</v>
       </c>
       <c r="AB3" t="n">
-        <v>1042.723266308077</v>
+        <v>1178.837691095664</v>
       </c>
       <c r="AC3" t="n">
-        <v>943.2072212429287</v>
+        <v>1066.331076366584</v>
       </c>
       <c r="AD3" t="n">
-        <v>762088.6166723854</v>
+        <v>861569.7129970192</v>
       </c>
       <c r="AE3" t="n">
-        <v>1042723.266308076</v>
+        <v>1178837.691095664</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.315586233226162e-06</v>
+        <v>1.943621847986023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.36921296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>943207.2212429286</v>
+        <v>1066331.076366584</v>
       </c>
     </row>
     <row r="4">
@@ -20501,28 +20501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>655.4901899822758</v>
+        <v>754.9711967983584</v>
       </c>
       <c r="AB4" t="n">
-        <v>896.8705961199892</v>
+        <v>1032.984898438029</v>
       </c>
       <c r="AC4" t="n">
-        <v>811.2745251920842</v>
+        <v>934.3982695345131</v>
       </c>
       <c r="AD4" t="n">
-        <v>655490.1899822757</v>
+        <v>754971.1967983583</v>
       </c>
       <c r="AE4" t="n">
-        <v>896870.5961199892</v>
+        <v>1032984.898438029</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4236027871121e-06</v>
+        <v>2.103203431294349e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.51736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>811274.5251920841</v>
+        <v>934398.2695345131</v>
       </c>
     </row>
     <row r="5">
@@ -20607,28 +20607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>600.7477353140176</v>
+        <v>692.0168873454509</v>
       </c>
       <c r="AB5" t="n">
-        <v>821.9695545762254</v>
+        <v>946.848034896443</v>
       </c>
       <c r="AC5" t="n">
-        <v>743.521933928985</v>
+        <v>856.482187355489</v>
       </c>
       <c r="AD5" t="n">
-        <v>600747.7353140176</v>
+        <v>692016.8873454508</v>
       </c>
       <c r="AE5" t="n">
-        <v>821969.5545762253</v>
+        <v>946848.034896443</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.471850181181152e-06</v>
+        <v>2.174483205172068e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.77662037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>743521.933928985</v>
+        <v>856482.187355489</v>
       </c>
     </row>
     <row r="6">
@@ -20713,28 +20713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>597.5209556624628</v>
+        <v>688.7901076938959</v>
       </c>
       <c r="AB6" t="n">
-        <v>817.5545323014968</v>
+        <v>942.4330126217145</v>
       </c>
       <c r="AC6" t="n">
-        <v>739.528275183634</v>
+        <v>852.488528610138</v>
       </c>
       <c r="AD6" t="n">
-        <v>597520.9556624629</v>
+        <v>688790.1076938959</v>
       </c>
       <c r="AE6" t="n">
-        <v>817554.5323014968</v>
+        <v>942433.0126217145</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.475339946768236e-06</v>
+        <v>2.179638917863568e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.73032407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>739528.275183634</v>
+        <v>852488.528610138</v>
       </c>
     </row>
   </sheetData>
@@ -21010,28 +21010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1505.877818941033</v>
+        <v>1659.399510073753</v>
       </c>
       <c r="AB2" t="n">
-        <v>2060.408466515772</v>
+        <v>2270.463617222564</v>
       </c>
       <c r="AC2" t="n">
-        <v>1863.765974272951</v>
+        <v>2053.773756210543</v>
       </c>
       <c r="AD2" t="n">
-        <v>1505877.818941033</v>
+        <v>1659399.510073753</v>
       </c>
       <c r="AE2" t="n">
-        <v>2060408.466515772</v>
+        <v>2270463.617222564</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.680954928636867e-07</v>
+        <v>1.26062137734367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.58449074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>1863765.974272951</v>
+        <v>2053773.756210543</v>
       </c>
     </row>
     <row r="3">
@@ -21116,28 +21116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>941.0046160834775</v>
+        <v>1051.796141666643</v>
       </c>
       <c r="AB3" t="n">
-        <v>1287.524029919151</v>
+        <v>1439.113882999185</v>
       </c>
       <c r="AC3" t="n">
-        <v>1164.644543554992</v>
+        <v>1301.766873814763</v>
       </c>
       <c r="AD3" t="n">
-        <v>941004.6160834775</v>
+        <v>1051796.141666643</v>
       </c>
       <c r="AE3" t="n">
-        <v>1287524.029919151</v>
+        <v>1439113.882999185</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.182441822413847e-06</v>
+        <v>1.717105377293057e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.12268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1164644.543554992</v>
+        <v>1301766.873814763</v>
       </c>
     </row>
     <row r="4">
@@ -21222,28 +21222,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>798.1627783206405</v>
+        <v>900.5105724091204</v>
       </c>
       <c r="AB4" t="n">
-        <v>1092.08152575491</v>
+        <v>1232.118292892772</v>
       </c>
       <c r="AC4" t="n">
-        <v>987.8547976829088</v>
+        <v>1114.52665230797</v>
       </c>
       <c r="AD4" t="n">
-        <v>798162.7783206406</v>
+        <v>900510.5724091204</v>
       </c>
       <c r="AE4" t="n">
-        <v>1092081.52575491</v>
+        <v>1232118.292892772</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.302650335598931e-06</v>
+        <v>1.891668455555244e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.71527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>987854.7976829088</v>
+        <v>1114526.65230797</v>
       </c>
     </row>
     <row r="5">
@@ -21328,28 +21328,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>726.6923077143509</v>
+        <v>828.9547609482591</v>
       </c>
       <c r="AB5" t="n">
-        <v>994.292474816753</v>
+        <v>1134.212474832417</v>
       </c>
       <c r="AC5" t="n">
-        <v>899.3985965184945</v>
+        <v>1025.964828111617</v>
       </c>
       <c r="AD5" t="n">
-        <v>726692.307714351</v>
+        <v>828954.7609482592</v>
       </c>
       <c r="AE5" t="n">
-        <v>994292.4748167531</v>
+        <v>1134212.474832417</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.368519476482765e-06</v>
+        <v>1.987321581032837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.56944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>899398.5965184945</v>
+        <v>1025964.828111617</v>
       </c>
     </row>
     <row r="6">
@@ -21434,28 +21434,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>671.8031347635319</v>
+        <v>773.9802471428684</v>
       </c>
       <c r="AB6" t="n">
-        <v>919.1906868460355</v>
+        <v>1058.993919739502</v>
       </c>
       <c r="AC6" t="n">
-        <v>831.4644177856807</v>
+        <v>957.9250263468642</v>
       </c>
       <c r="AD6" t="n">
-        <v>671803.134763532</v>
+        <v>773980.2471428683</v>
       </c>
       <c r="AE6" t="n">
-        <v>919190.6868460355</v>
+        <v>1058993.919739502</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410581780385893e-06</v>
+        <v>2.048403155486924e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.89814814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>831464.4177856806</v>
+        <v>957925.0263468642</v>
       </c>
     </row>
     <row r="7">
@@ -21540,28 +21540,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>649.0549392546966</v>
+        <v>742.8737505024696</v>
       </c>
       <c r="AB7" t="n">
-        <v>888.0656021712902</v>
+        <v>1016.43263871433</v>
       </c>
       <c r="AC7" t="n">
-        <v>803.3098675079625</v>
+        <v>919.4257342476018</v>
       </c>
       <c r="AD7" t="n">
-        <v>649054.9392546966</v>
+        <v>742873.7505024696</v>
       </c>
       <c r="AE7" t="n">
-        <v>888065.6021712902</v>
+        <v>1016432.63871433</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.429371032890844e-06</v>
+        <v>2.075688325801439e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.6087962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>803309.8675079625</v>
+        <v>919425.7342476018</v>
       </c>
     </row>
     <row r="8">
@@ -21646,28 +21646,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>648.7542280024579</v>
+        <v>742.5730392502307</v>
       </c>
       <c r="AB8" t="n">
-        <v>887.6541557695328</v>
+        <v>1016.021192312573</v>
       </c>
       <c r="AC8" t="n">
-        <v>802.9376889733202</v>
+        <v>919.0535557129595</v>
       </c>
       <c r="AD8" t="n">
-        <v>648754.2280024579</v>
+        <v>742573.0392502308</v>
       </c>
       <c r="AE8" t="n">
-        <v>887654.1557695329</v>
+        <v>1016021.192312573</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.431346039546195e-06</v>
+        <v>2.078556369272e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.57986111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>802937.6889733202</v>
+        <v>919053.5557129595</v>
       </c>
     </row>
   </sheetData>
@@ -21943,28 +21943,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>469.6294470943251</v>
+        <v>569.1634913319598</v>
       </c>
       <c r="AB2" t="n">
-        <v>642.5677281034176</v>
+        <v>778.7545985614709</v>
       </c>
       <c r="AC2" t="n">
-        <v>581.2419659826973</v>
+        <v>704.431352663707</v>
       </c>
       <c r="AD2" t="n">
-        <v>469629.4470943251</v>
+        <v>569163.4913319598</v>
       </c>
       <c r="AE2" t="n">
-        <v>642567.7281034176</v>
+        <v>778754.5985614709</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.402493974465151e-06</v>
+        <v>2.33787389618628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.29861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>581241.9659826972</v>
+        <v>704431.352663707</v>
       </c>
     </row>
   </sheetData>
@@ -22240,28 +22240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.7547137735845</v>
+        <v>856.6943543798428</v>
       </c>
       <c r="AB2" t="n">
-        <v>1020.374499760999</v>
+        <v>1172.167010350001</v>
       </c>
       <c r="AC2" t="n">
-        <v>922.9913896084132</v>
+        <v>1060.297036028928</v>
       </c>
       <c r="AD2" t="n">
-        <v>745754.7137735845</v>
+        <v>856694.3543798429</v>
       </c>
       <c r="AE2" t="n">
-        <v>1020374.499760999</v>
+        <v>1172167.010350002</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.28498609476611e-06</v>
+        <v>1.955628846445034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.47569444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>922991.3896084132</v>
+        <v>1060297.036028928</v>
       </c>
     </row>
     <row r="3">
@@ -22346,28 +22346,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>549.8833267581531</v>
+        <v>637.166026146107</v>
       </c>
       <c r="AB3" t="n">
-        <v>752.3746268107582</v>
+        <v>871.7986667542892</v>
       </c>
       <c r="AC3" t="n">
-        <v>680.5690483923595</v>
+        <v>788.5954255763728</v>
       </c>
       <c r="AD3" t="n">
-        <v>549883.326758153</v>
+        <v>637166.026146107</v>
       </c>
       <c r="AE3" t="n">
-        <v>752374.6268107581</v>
+        <v>871798.6667542892</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.516375300960612e-06</v>
+        <v>2.307781611547407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.4363425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>680569.0483923595</v>
+        <v>788595.4255763728</v>
       </c>
     </row>
     <row r="4">
@@ -22452,28 +22452,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>539.0825191741204</v>
+        <v>626.3652185620745</v>
       </c>
       <c r="AB4" t="n">
-        <v>737.5964853762838</v>
+        <v>857.0205253198149</v>
       </c>
       <c r="AC4" t="n">
-        <v>667.2013120351396</v>
+        <v>775.2276892191528</v>
       </c>
       <c r="AD4" t="n">
-        <v>539082.5191741204</v>
+        <v>626365.2185620745</v>
       </c>
       <c r="AE4" t="n">
-        <v>737596.4853762838</v>
+        <v>857020.5253198148</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.533952885475895e-06</v>
+        <v>2.334533053815092e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.18171296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>667201.3120351397</v>
+        <v>775227.6892191528</v>
       </c>
     </row>
   </sheetData>
@@ -22749,28 +22749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>964.6464507536336</v>
+        <v>1086.969175848509</v>
       </c>
       <c r="AB2" t="n">
-        <v>1319.871831118993</v>
+        <v>1487.239180091567</v>
       </c>
       <c r="AC2" t="n">
-        <v>1193.905116008745</v>
+        <v>1345.299160096926</v>
       </c>
       <c r="AD2" t="n">
-        <v>964646.4507536336</v>
+        <v>1086969.175848509</v>
       </c>
       <c r="AE2" t="n">
-        <v>1319871.831118993</v>
+        <v>1487239.180091567</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.123739469858542e-06</v>
+        <v>1.677642671845702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.14930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1193905.116008745</v>
+        <v>1345299.160096926</v>
       </c>
     </row>
     <row r="3">
@@ -22855,28 +22855,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>673.006992544018</v>
+        <v>771.0016463803921</v>
       </c>
       <c r="AB3" t="n">
-        <v>920.8378581717534</v>
+        <v>1054.91846676969</v>
       </c>
       <c r="AC3" t="n">
-        <v>832.9543853918916</v>
+        <v>954.2385288885575</v>
       </c>
       <c r="AD3" t="n">
-        <v>673006.992544018</v>
+        <v>771001.6463803921</v>
       </c>
       <c r="AE3" t="n">
-        <v>920837.8581717534</v>
+        <v>1054918.46676969</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.393326006321533e-06</v>
+        <v>2.080111295095479e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.50694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>832954.3853918916</v>
+        <v>954238.5288885576</v>
       </c>
     </row>
     <row r="4">
@@ -22961,28 +22961,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>591.2798842010317</v>
+        <v>681.0230655383541</v>
       </c>
       <c r="AB4" t="n">
-        <v>809.0152229913263</v>
+        <v>931.8058028867857</v>
       </c>
       <c r="AC4" t="n">
-        <v>731.8039455690301</v>
+        <v>842.8755648569283</v>
       </c>
       <c r="AD4" t="n">
-        <v>591279.8842010316</v>
+        <v>681023.0655383541</v>
       </c>
       <c r="AE4" t="n">
-        <v>809015.2229913262</v>
+        <v>931805.8028867857</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.486546460983416e-06</v>
+        <v>2.219281108761736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>731803.9455690301</v>
+        <v>842875.5648569283</v>
       </c>
     </row>
     <row r="5">
@@ -23067,28 +23067,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>570.5933433690939</v>
+        <v>668.4173154963248</v>
       </c>
       <c r="AB5" t="n">
-        <v>780.7109851992973</v>
+        <v>914.5580595528388</v>
       </c>
       <c r="AC5" t="n">
-        <v>706.2010245066252</v>
+        <v>827.2739219394135</v>
       </c>
       <c r="AD5" t="n">
-        <v>570593.3433690938</v>
+        <v>668417.3154963248</v>
       </c>
       <c r="AE5" t="n">
-        <v>780710.9851992973</v>
+        <v>914558.0595528388</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.499111695309426e-06</v>
+        <v>2.238039881459921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.85185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>706201.0245066253</v>
+        <v>827273.9219394135</v>
       </c>
     </row>
   </sheetData>
